--- a/biology/Neurosciences/Liste_d'animaux_par_le_nombre_de_neurones/Liste_d'animaux_par_le_nombre_de_neurones.xlsx
+++ b/biology/Neurosciences/Liste_d'animaux_par_le_nombre_de_neurones/Liste_d'animaux_par_le_nombre_de_neurones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27animaux_par_le_nombre_de_neurones</t>
+          <t>Liste_d'animaux_par_le_nombre_de_neurones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste de diverses espèces animales classées par le nombre de neurones constituant l'ensemble de leur système nerveux. Ces chiffres sont des estimations calculées en multipliant la densité des neurones chez un animal particulier par le volume moyen du cerveau de l'animal. Le ver nématode Caenorhabditis elegans est la seule espèce citée pour laquelle le nombre de neurones a pu être compté.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27animaux_par_le_nombre_de_neurones</t>
+          <t>Liste_d'animaux_par_le_nombre_de_neurones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Système nerveux entier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste est incomplète, vous pouvez aider en l'élargissant.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27animaux_par_le_nombre_de_neurones</t>
+          <t>Liste_d'animaux_par_le_nombre_de_neurones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Cortex cérébral</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls les mammifères apparaissent dans cette liste du fait que seuls les mammifères ont un cortex cérébral (bien que le pallium des reptiles et des oiseaux soit aussi fréquemment appelé "cortex".)
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27animaux_par_le_nombre_de_neurones</t>
+          <t>Liste_d'animaux_par_le_nombre_de_neurones</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Autres tableaux comparatifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tableaux comparatifs pour six mammifères. De gauche à droite, tableaux du haut : 1- nombres de neurones pour le cerveau entier, 2- nombres de neurones pour le cortex cérébral, tableaux du bas : 3- rapport en pourcentage de la masse du cerveau sur celle du corps, 4- quotient d'encéphalisation.
